--- a/webminer/miner-kafka.xlsx
+++ b/webminer/miner-kafka.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>TOPIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,22 @@
   </si>
   <si>
     <t>webdb-article-martinfowler-article-migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutsplus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webminer-tutsplus-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webdb-article-tutsplus-article-migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin/kafka-topics.sh --create --zookeeper 192.168.1.251:2189 --replication-factor 3 --partitions 5 --topic webminer-tutsplus-article</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,6 +441,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -816,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -829,44 +851,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -890,41 +912,41 @@
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="33">
         <v>5</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -936,13 +958,13 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -954,13 +976,13 @@
       <c r="C11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1">
       <c r="A12" s="10" t="s">
@@ -972,13 +994,13 @@
       <c r="C12" s="11">
         <v>5</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="A13" s="12" t="s">
@@ -990,13 +1012,13 @@
       <c r="C13" s="13">
         <v>5</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="A14" s="14" t="s">
@@ -1008,13 +1030,13 @@
       <c r="C14" s="15">
         <v>5</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
       <c r="A15" s="16" t="s">
@@ -1026,13 +1048,13 @@
       <c r="C15" s="17">
         <v>5</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="A16" s="18" t="s">
@@ -1044,13 +1066,13 @@
       <c r="C16" s="19">
         <v>5</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1">
       <c r="A17" s="20" t="s">
@@ -1062,23 +1084,31 @@
       <c r="C17" s="21">
         <v>5</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="23">
+        <v>5</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1">
       <c r="A19" s="3"/>
@@ -1255,7 +1285,9 @@
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1313,7 +1345,8 @@
     <row r="46" spans="1:8" ht="15.95" customHeight="1"/>
     <row r="47" spans="1:8" ht="15.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="D18:H18"/>
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="A1:E5"/>
